--- a/learning_results_after_normalization/KNN_results.xlsx
+++ b/learning_results_after_normalization/KNN_results.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\PredectingPLMatchesResult\learning_results_after_normalization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CBBAD2-4274-44D7-8D69-0C7D7EAEFCFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>n_neighbors</t>
   </si>
@@ -34,12 +40,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,7 +53,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +104,1249 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>KNN Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.4963636363636364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50727272727272721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5509090909090909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5481818181818181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55545454545454542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55545454545454542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57272727272727275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A91D-40B9-93B6-CCB5A255D73C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.4963636363636364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51818181818181808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54181818181818175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54090909090909089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54727272727272724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56363636363636371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A91D-40B9-93B6-CCB5A255D73C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="631421584"/>
+        <c:axId val="631421904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="631421584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n_neighbors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631421904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="631421904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="he-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631421584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60B1A7B-1370-40BD-9B17-CBE7DC3B209C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -144,7 +1392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +1424,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +1476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +1669,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +1688,26 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -414,10 +1718,28 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>0.5727272727272728</v>
+        <v>0.57272727272727275</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0.4963636363636364</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>0.4963636363636364</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -428,10 +1750,28 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.50727272727272721</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>0.51818181818181808</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>16</v>
       </c>
@@ -442,10 +1782,28 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.5509090909090909</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>0.54181818181818175</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -456,10 +1814,28 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.5636363636363637</v>
+        <v>0.56363636363636371</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0.5481818181818181</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>0.54090909090909089</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -470,10 +1846,28 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.5618181818181818</v>
+        <v>0.56181818181818177</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0.54909090909090907</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>0.54727272727272724</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13</v>
       </c>
@@ -484,10 +1878,28 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0.5554545454545454</v>
+        <v>0.55545454545454542</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0.55545454545454542</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -498,10 +1910,28 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0.5554545454545454</v>
+        <v>0.55545454545454542</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0.55545454545454542</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0.56363636363636371</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -514,8 +1944,26 @@
       <c r="D9">
         <v>0.5509090909090909</v>
       </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0.57272727272727275</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0.56181818181818177</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -526,10 +1974,28 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -540,10 +2006,10 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>0.5490909090909091</v>
+        <v>0.54909090909090907</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -557,7 +2023,7 @@
         <v>0.5481818181818181</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -568,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0.5472727272727272</v>
+        <v>0.54727272727272724</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -582,10 +2048,10 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>0.5418181818181818</v>
+        <v>0.54181818181818175</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -596,10 +2062,10 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>0.5409090909090909</v>
+        <v>0.54090909090909089</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -610,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>0.5181818181818181</v>
+        <v>0.51818181818181808</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -624,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>0.5072727272727272</v>
+        <v>0.50727272727272721</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -641,7 +2107,7 @@
         <v>0.4963636363636364</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -656,6 +2122,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:H19">
+    <sortCondition ref="F1:F19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>